--- a/SKMetrics GSv1.xlsx
+++ b/SKMetrics GSv1.xlsx
@@ -82,6 +82,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,8 +562,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -885,2348 +890,2349 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection sqref="A1:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>3.9183062502429501E+18</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.98799999999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.98799999999999999</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0.98799999999999999</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0.98799999999999999</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>0.98799999999999999</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0.67500000000000004</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>0.48570000000000002</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>0.68</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>0.6764</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>0.56669999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>5.136936050536E+17</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.9889</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.9889</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.9889</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.9889</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0.9889</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0.67500000000000004</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>0.48480000000000001</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>0.64</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>0.66549999999999998</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>0.55169999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
+        <v>3.4922762134327199E+18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.66279999999999994</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.65049999999999997</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.70350000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.66279999999999994</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.43590000000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.53120000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4.5763031789805599E+18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.70640000000000003</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.70640000000000003</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.69110000000000005</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.43590000000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.53120000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5.2913274537536901E+18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="C6" s="2">
         <v>0.72670000000000001</v>
       </c>
-      <c r="D4">
+      <c r="D6" s="2">
         <v>0.70740000000000003</v>
       </c>
-      <c r="E4">
+      <c r="E6" s="2">
         <v>0.77329999999999999</v>
       </c>
-      <c r="F4">
+      <c r="F6" s="2">
         <v>0.72670000000000001</v>
       </c>
-      <c r="G4">
+      <c r="G6" s="2">
         <v>0.7389</v>
       </c>
-      <c r="H4">
+      <c r="H6" s="2">
         <v>0.57499999999999996</v>
       </c>
-      <c r="I4">
+      <c r="I6" s="2">
         <v>0.40820000000000001</v>
       </c>
-      <c r="J4">
+      <c r="J6" s="2">
         <v>0.8</v>
       </c>
-      <c r="K4">
+      <c r="K6" s="2">
         <v>0.63639999999999997</v>
       </c>
-      <c r="L4">
+      <c r="L6" s="2">
         <v>0.54049999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3.4922762134327199E+18</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6.7008905459582505E+18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.69089999999999996</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.66090000000000004</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.63090000000000002</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.48980000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5.03404952906419E+18</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>0.66279999999999994</v>
-      </c>
-      <c r="D5">
-        <v>0.65049999999999997</v>
-      </c>
-      <c r="E5">
-        <v>0.70350000000000001</v>
-      </c>
-      <c r="F5">
-        <v>0.66279999999999994</v>
-      </c>
-      <c r="G5">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="H5">
+      <c r="C8" s="2">
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.6593</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.46429999999999999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.62360000000000004</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.49059999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>5.03404952906419E+18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.37930000000000003</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.53010000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7.0048917234210099E+18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.9778</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="H10" s="2">
         <v>0.625</v>
       </c>
-      <c r="I5">
-        <v>0.43590000000000001</v>
-      </c>
-      <c r="J5">
-        <v>0.68</v>
-      </c>
-      <c r="K5">
-        <v>0.64</v>
-      </c>
-      <c r="L5">
-        <v>0.53120000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4.5763031789805599E+18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>0.70640000000000003</v>
-      </c>
-      <c r="D6">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="E6">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="F6">
-        <v>0.70640000000000003</v>
-      </c>
-      <c r="G6">
-        <v>0.69110000000000005</v>
-      </c>
-      <c r="H6">
-        <v>0.625</v>
-      </c>
-      <c r="I6">
-        <v>0.43590000000000001</v>
-      </c>
-      <c r="J6">
-        <v>0.68</v>
-      </c>
-      <c r="K6">
-        <v>0.64</v>
-      </c>
-      <c r="L6">
-        <v>0.53120000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5.03404952906419E+18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>0.61109999999999998</v>
-      </c>
-      <c r="D7">
-        <v>0.57140000000000002</v>
-      </c>
-      <c r="E7">
-        <v>0.88890000000000002</v>
-      </c>
-      <c r="F7">
-        <v>0.61109999999999998</v>
-      </c>
-      <c r="G7">
-        <v>0.69569999999999999</v>
-      </c>
-      <c r="H7">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="I7">
-        <v>0.37930000000000003</v>
-      </c>
-      <c r="J7">
-        <v>0.88</v>
-      </c>
-      <c r="K7">
-        <v>0.61270000000000002</v>
-      </c>
-      <c r="L7">
-        <v>0.53010000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3.4922762134327199E+18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>0.61629999999999996</v>
-      </c>
-      <c r="D8">
-        <v>0.57689999999999997</v>
-      </c>
-      <c r="E8">
-        <v>0.87209999999999999</v>
-      </c>
-      <c r="F8">
-        <v>0.61629999999999996</v>
-      </c>
-      <c r="G8">
-        <v>0.69440000000000002</v>
-      </c>
-      <c r="H8">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="I8">
-        <v>0.35589999999999999</v>
-      </c>
-      <c r="J8">
-        <v>0.84</v>
-      </c>
-      <c r="K8">
-        <v>0.57450000000000001</v>
-      </c>
-      <c r="L8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5.03404952906419E+18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>0.66110000000000002</v>
-      </c>
-      <c r="D9">
-        <v>0.6593</v>
-      </c>
-      <c r="E9">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="F9">
-        <v>0.66110000000000002</v>
-      </c>
-      <c r="G9">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="H9">
+      <c r="I10" s="2">
+        <v>0.42420000000000002</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.60729999999999995</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.48280000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>5.6871621742078802E+18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.60550000000000004</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.47270000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1.6030133657215401E+18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.71509999999999996</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.66479999999999995</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.71509999999999996</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H12" s="2">
         <v>0.66249999999999998</v>
       </c>
-      <c r="I9">
-        <v>0.46429999999999999</v>
-      </c>
-      <c r="J9">
-        <v>0.52</v>
-      </c>
-      <c r="K9">
-        <v>0.62360000000000004</v>
-      </c>
-      <c r="L9">
-        <v>0.49059999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>6.7008905459582505E+18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="D10">
-        <v>0.69089999999999996</v>
-      </c>
-      <c r="E10">
-        <v>0.63329999999999997</v>
-      </c>
-      <c r="F10">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="G10">
-        <v>0.66090000000000004</v>
-      </c>
-      <c r="H10">
-        <v>0.6875</v>
-      </c>
-      <c r="I10">
-        <v>0.5</v>
-      </c>
-      <c r="J10">
-        <v>0.48</v>
-      </c>
-      <c r="K10">
-        <v>0.63090000000000002</v>
-      </c>
-      <c r="L10">
-        <v>0.48980000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>7.0048917234210099E+18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>0.98309999999999997</v>
-      </c>
-      <c r="D11">
-        <v>0.9778</v>
-      </c>
-      <c r="E11">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="F11">
-        <v>0.98309999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.98319999999999996</v>
-      </c>
-      <c r="H11">
-        <v>0.625</v>
-      </c>
-      <c r="I11">
-        <v>0.42420000000000002</v>
-      </c>
-      <c r="J11">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K11">
-        <v>0.60729999999999995</v>
-      </c>
-      <c r="L11">
-        <v>0.48280000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>8.7013087705175194E+17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>0.6089</v>
-      </c>
-      <c r="D12">
-        <v>0.56989999999999996</v>
-      </c>
-      <c r="E12">
-        <v>0.88829999999999998</v>
-      </c>
-      <c r="F12">
-        <v>0.6089</v>
-      </c>
-      <c r="G12">
-        <v>0.69430000000000003</v>
-      </c>
-      <c r="H12">
-        <v>0.48749999999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.35189999999999999</v>
-      </c>
-      <c r="J12">
-        <v>0.76</v>
-      </c>
-      <c r="K12">
-        <v>0.56179999999999997</v>
-      </c>
-      <c r="L12">
-        <v>0.48099999999999998</v>
+      <c r="I12" s="2">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.6018</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.44900000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>8.7013087705175194E+17</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>0.64529999999999998</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.62260000000000004</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>0.73740000000000006</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>0.64529999999999998</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>0.67520000000000002</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>0.61250000000000004</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>0.4118</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>0.59819999999999995</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>0.47460000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>1.75730540276975E+18</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0.99419999999999997</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.98850000000000005</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>0.99419999999999997</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>0.99419999999999997</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>0.61250000000000004</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>0.4118</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <v>0.59819999999999995</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>0.47460000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>5.6871621742078802E+18</v>
+      <c r="A15" s="1">
+        <v>3.35792421108446E+18</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="D15">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="E15">
+      <c r="C15" s="2">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.98850000000000005</v>
+      </c>
+      <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="G15">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="H15">
-        <v>0.63749999999999996</v>
-      </c>
-      <c r="I15">
-        <v>0.43330000000000002</v>
-      </c>
-      <c r="J15">
+      <c r="F15" s="2">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.4194</v>
+      </c>
+      <c r="J15" s="2">
         <v>0.52</v>
       </c>
-      <c r="K15">
-        <v>0.60550000000000004</v>
-      </c>
-      <c r="L15">
-        <v>0.47270000000000001</v>
+      <c r="K15" s="2">
+        <v>0.59640000000000004</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.46429999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
+        <v>9.30478147304528E+16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.9889</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.9889</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.9889</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.9889</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.9889</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.45610000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>4.3528921774985902E+18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.68440000000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.69189999999999996</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.66479999999999995</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.68440000000000001</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.67810000000000004</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.4138</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.58550000000000002</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.44440000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>6.2803307948343501E+18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="C18" s="2">
         <v>0.65</v>
       </c>
-      <c r="D16">
+      <c r="D18" s="2">
         <v>0.62619999999999998</v>
       </c>
-      <c r="E16">
+      <c r="E18" s="2">
         <v>0.74439999999999995</v>
       </c>
-      <c r="F16">
+      <c r="F18" s="2">
         <v>0.65</v>
       </c>
-      <c r="G16">
+      <c r="G18" s="2">
         <v>0.68020000000000003</v>
       </c>
-      <c r="H16">
+      <c r="H18" s="2">
         <v>0.57499999999999996</v>
       </c>
-      <c r="I16">
+      <c r="I18" s="2">
         <v>0.3846</v>
       </c>
-      <c r="J16">
+      <c r="J18" s="2">
         <v>0.6</v>
       </c>
-      <c r="K16">
+      <c r="K18" s="2">
         <v>0.58179999999999998</v>
       </c>
-      <c r="L16">
+      <c r="L18" s="2">
         <v>0.46879999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>3.8870064440490798E+18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>0.67069999999999996</v>
-      </c>
-      <c r="D17">
-        <v>0.63770000000000004</v>
-      </c>
-      <c r="E17">
-        <v>0.79039999999999999</v>
-      </c>
-      <c r="F17">
-        <v>0.67069999999999996</v>
-      </c>
-      <c r="G17">
-        <v>0.70589999999999997</v>
-      </c>
-      <c r="H17">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="I17">
-        <v>0.35420000000000001</v>
-      </c>
-      <c r="J17">
-        <v>0.68</v>
-      </c>
-      <c r="K17">
-        <v>0.55820000000000003</v>
-      </c>
-      <c r="L17">
-        <v>0.46579999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>3.35792421108446E+18</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>5.4425183635142195E+18</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C18">
-        <v>0.99419999999999997</v>
-      </c>
-      <c r="D18">
-        <v>0.98850000000000005</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.99419999999999997</v>
-      </c>
-      <c r="G18">
-        <v>0.99419999999999997</v>
-      </c>
-      <c r="H18">
-        <v>0.625</v>
-      </c>
-      <c r="I18">
-        <v>0.4194</v>
-      </c>
-      <c r="J18">
-        <v>0.52</v>
-      </c>
-      <c r="K18">
-        <v>0.59640000000000004</v>
-      </c>
-      <c r="L18">
-        <v>0.46429999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>9.30478147304528E+16</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" s="2">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.58179999999999998</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.41670000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>3.4922762134327199E+18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.61629999999999996</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.57689999999999997</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.87209999999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.61629999999999996</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.69440000000000002</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.35589999999999999</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.57450000000000001</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>5.92097041256418E+18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.37840000000000001</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.57089999999999996</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>3.9895401416436398E+18</v>
+      </c>
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C19">
-        <v>0.9889</v>
-      </c>
-      <c r="D19">
-        <v>0.9889</v>
-      </c>
-      <c r="E19">
-        <v>0.9889</v>
-      </c>
-      <c r="F19">
-        <v>0.9889</v>
-      </c>
-      <c r="G19">
-        <v>0.9889</v>
-      </c>
-      <c r="H19">
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="I19">
-        <v>0.40620000000000001</v>
-      </c>
-      <c r="J19">
-        <v>0.52</v>
-      </c>
-      <c r="K19">
-        <v>0.58730000000000004</v>
-      </c>
-      <c r="L19">
-        <v>0.45610000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>5.92097041256418E+18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="D20">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="E20">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="F20">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="G20">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="H20">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="I20">
-        <v>0.37840000000000001</v>
-      </c>
-      <c r="J20">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K20">
-        <v>0.57089999999999996</v>
-      </c>
-      <c r="L20">
-        <v>0.4516</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1.6030133657215401E+18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>0.71509999999999996</v>
-      </c>
-      <c r="D21">
-        <v>0.73909999999999998</v>
-      </c>
-      <c r="E21">
-        <v>0.66479999999999995</v>
-      </c>
-      <c r="F21">
-        <v>0.71509999999999996</v>
-      </c>
-      <c r="G21">
-        <v>0.7</v>
-      </c>
-      <c r="H21">
-        <v>0.66249999999999998</v>
-      </c>
-      <c r="I21">
-        <v>0.45829999999999999</v>
-      </c>
-      <c r="J21">
-        <v>0.44</v>
-      </c>
-      <c r="K21">
-        <v>0.6018</v>
-      </c>
-      <c r="L21">
-        <v>0.44900000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>4.3528921774985902E+18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>0.68440000000000001</v>
-      </c>
-      <c r="D22">
-        <v>0.69189999999999996</v>
-      </c>
-      <c r="E22">
-        <v>0.66479999999999995</v>
-      </c>
-      <c r="F22">
-        <v>0.68440000000000001</v>
-      </c>
-      <c r="G22">
-        <v>0.67810000000000004</v>
-      </c>
-      <c r="H22">
-        <v>0.625</v>
-      </c>
-      <c r="I22">
-        <v>0.4138</v>
-      </c>
-      <c r="J22">
+      <c r="C22" s="2">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.3871</v>
+      </c>
+      <c r="J22" s="2">
         <v>0.48</v>
       </c>
-      <c r="K22">
-        <v>0.58550000000000002</v>
-      </c>
-      <c r="L22">
-        <v>0.44440000000000002</v>
+      <c r="K22" s="2">
+        <v>0.56730000000000003</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.42859999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>4.1854096475057398E+18</v>
+      <c r="A23" s="1">
+        <v>8.7013087705175194E+17</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C23">
-        <v>0.64890000000000003</v>
-      </c>
-      <c r="D23">
-        <v>0.60470000000000002</v>
-      </c>
-      <c r="E23">
-        <v>0.85960000000000003</v>
-      </c>
-      <c r="F23">
-        <v>0.64890000000000003</v>
-      </c>
-      <c r="G23">
-        <v>0.71</v>
-      </c>
-      <c r="H23">
-        <v>0.4</v>
-      </c>
-      <c r="I23">
-        <v>0.3115</v>
-      </c>
-      <c r="J23">
+      <c r="C23" s="2">
+        <v>0.6089</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.56989999999999996</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.6089</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.69430000000000003</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.35189999999999999</v>
+      </c>
+      <c r="J23" s="2">
         <v>0.76</v>
       </c>
-      <c r="K23">
-        <v>0.49819999999999998</v>
-      </c>
-      <c r="L23">
-        <v>0.44190000000000002</v>
+      <c r="K23" s="2">
+        <v>0.56179999999999997</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.48099999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>3.8870064440490798E+18</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24">
-        <v>0.65569999999999995</v>
-      </c>
-      <c r="D24">
-        <v>0.6048</v>
-      </c>
-      <c r="E24">
-        <v>0.8982</v>
-      </c>
-      <c r="F24">
-        <v>0.65569999999999995</v>
-      </c>
-      <c r="G24">
-        <v>0.72289999999999999</v>
-      </c>
-      <c r="H24">
-        <v>0.4</v>
-      </c>
-      <c r="I24">
-        <v>0.3115</v>
-      </c>
-      <c r="J24">
-        <v>0.76</v>
-      </c>
-      <c r="K24">
-        <v>0.49819999999999998</v>
-      </c>
-      <c r="L24">
-        <v>0.44190000000000002</v>
+        <v>12</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.67069999999999996</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.63770000000000004</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.67069999999999996</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.35420000000000001</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.55820000000000003</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.46579999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>2.4677379217081201E+18</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>0.79039999999999999</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>0.77090000000000003</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>0.82630000000000003</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>0.79039999999999999</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>0.79769999999999996</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>0.53749999999999998</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>0.35</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="2">
         <v>0.54359999999999997</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
         <v>0.43080000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>3.9895401416436398E+18</v>
+      <c r="A26" s="1">
+        <v>7.5573136647363994E+17</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26">
-        <v>0.99439999999999995</v>
-      </c>
-      <c r="D26">
-        <v>0.99439999999999995</v>
-      </c>
-      <c r="E26">
-        <v>0.99439999999999995</v>
-      </c>
-      <c r="F26">
-        <v>0.99439999999999995</v>
-      </c>
-      <c r="G26">
-        <v>0.99439999999999995</v>
-      </c>
-      <c r="H26">
-        <v>0.6</v>
-      </c>
-      <c r="I26">
-        <v>0.3871</v>
-      </c>
-      <c r="J26">
-        <v>0.48</v>
-      </c>
-      <c r="K26">
-        <v>0.56730000000000003</v>
-      </c>
-      <c r="L26">
-        <v>0.42859999999999998</v>
+        <v>16</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.66769999999999996</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.66090000000000004</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.68859999999999999</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.66769999999999996</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.67449999999999999</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.42420000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>7.5573136647363994E+17</v>
+      <c r="A27" s="1">
+        <v>7.6672414235511204E+18</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="C27">
-        <v>0.66769999999999996</v>
-      </c>
-      <c r="D27">
-        <v>0.66090000000000004</v>
-      </c>
-      <c r="E27">
-        <v>0.68859999999999999</v>
-      </c>
-      <c r="F27">
-        <v>0.66769999999999996</v>
-      </c>
-      <c r="G27">
-        <v>0.67449999999999999</v>
-      </c>
-      <c r="H27">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="I27">
-        <v>0.34150000000000003</v>
-      </c>
-      <c r="J27">
+      <c r="C27" s="2">
+        <v>0.70789999999999997</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.7056</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.71350000000000002</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.70789999999999997</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.70950000000000002</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="J27" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K27">
-        <v>0.53449999999999998</v>
-      </c>
-      <c r="L27">
-        <v>0.42420000000000002</v>
+      <c r="K27" s="2">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.40579999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>5.4425183635142195E+18</v>
+      <c r="A28" s="1">
+        <v>4.1854096475057398E+18</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28">
-        <v>0.99439999999999995</v>
-      </c>
-      <c r="D28">
-        <v>0.99439999999999995</v>
-      </c>
-      <c r="E28">
-        <v>0.99439999999999995</v>
-      </c>
-      <c r="F28">
-        <v>0.99439999999999995</v>
-      </c>
-      <c r="G28">
-        <v>0.99439999999999995</v>
-      </c>
-      <c r="H28">
-        <v>0.65</v>
-      </c>
-      <c r="I28">
-        <v>0.43480000000000002</v>
-      </c>
-      <c r="J28">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="H28" s="2">
         <v>0.4</v>
       </c>
-      <c r="K28">
-        <v>0.58179999999999998</v>
-      </c>
-      <c r="L28">
-        <v>0.41670000000000001</v>
+      <c r="I28" s="2">
+        <v>0.3115</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.44190000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>7.6672414235511204E+18</v>
+      <c r="A29" s="1">
+        <v>3.8870064440490798E+18</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29">
-        <v>0.70789999999999997</v>
-      </c>
-      <c r="D29">
-        <v>0.7056</v>
-      </c>
-      <c r="E29">
-        <v>0.71350000000000002</v>
-      </c>
-      <c r="F29">
-        <v>0.70789999999999997</v>
-      </c>
-      <c r="G29">
-        <v>0.70950000000000002</v>
-      </c>
-      <c r="H29">
-        <v>0.48749999999999999</v>
-      </c>
-      <c r="I29">
-        <v>0.31819999999999998</v>
-      </c>
-      <c r="J29">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K29">
-        <v>0.50729999999999997</v>
-      </c>
-      <c r="L29">
-        <v>0.40579999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.65569999999999995</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.6048</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.8982</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.65569999999999995</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.3115</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.44190000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>4.1854096475057398E+18</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>0.6966</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>0.67500000000000004</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>0.75839999999999996</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>0.6966</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>0.71430000000000005</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <v>0.45</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <v>0.30609999999999998</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="2">
         <v>0.6</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="2">
         <v>0.4909</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="2">
         <v>0.40539999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>8.9040501771974103E+18</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>0.72470000000000001</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>0.70830000000000004</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>0.76400000000000001</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>0.72470000000000001</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>0.73509999999999998</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>0.4375</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <v>0.29170000000000001</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="2">
         <v>0.47089999999999999</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="2">
         <v>0.3836</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>1.90086673041973E+16</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>0.6825</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
         <v>0.5</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>1.90086673041973E+16</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>0.64</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>0.45300000000000001</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>0.64570000000000005</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>0.64149999999999996</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>0.53249999999999997</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>7.0489205016329894E+17</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>0.69750000000000001</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>0.5484</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>0.26769999999999999</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>0.58260000000000001</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>0.35980000000000001</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>8.47901919665169E+18</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>0.98250000000000004</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>0.99180000000000001</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>0.95279999999999998</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>0.97450000000000003</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>0.97189999999999999</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>3.4621320391091502E+18</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>0.69499999999999995</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>0.54100000000000004</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>0.25979999999999998</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>0.5786</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>0.35110000000000002</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>3.06321250195379E+18</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>0.99</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>0.98850000000000005</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>6.82110508189875E+18</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>0.6825</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
         <v>0.5</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>6.82110508189875E+18</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>0.64</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>0.45300000000000001</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>0.64570000000000005</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>0.64149999999999996</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>0.53249999999999997</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>8.0699064718555996E+18</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>0.71250000000000002</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>0.61539999999999995</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>0.252</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>0.58940000000000003</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>0.35749999999999998</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>1.2292632764516201E+18</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>0.96</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>0.99119999999999997</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>0.88190000000000002</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>0.93910000000000005</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>0.93330000000000002</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>1.9406929444489101E+18</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>0.69499999999999995</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>0.54100000000000004</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>0.25979999999999998</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>0.5786</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>0.35110000000000002</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>5.12976644246579E+18</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>0.99</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <v>0.98850000000000005</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>4.7766820156098601E+18</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>0.6825</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
         <v>0.5</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>4.7766820156098601E+18</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>0.64</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>0.45300000000000001</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>0.64570000000000005</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <v>0.64149999999999996</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <v>0.53249999999999997</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>4.54676565028755E+18</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>0.69499999999999995</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>0.55100000000000005</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>0.21260000000000001</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
         <v>0.56599999999999995</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <v>0.30680000000000002</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>5.0675879283687199E+18</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>0.95750000000000002</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>0.98250000000000004</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>0.88190000000000002</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <v>0.93730000000000002</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>0.92949999999999999</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>3.8056506868327898E+17</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>0.69499999999999995</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>0.54100000000000004</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>0.25979999999999998</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <v>0.5786</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <v>0.35110000000000002</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>4.1036827403834798E+18</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>0.99</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <v>0.98850000000000005</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>8.4913048626195599E+18</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>0.6825</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
         <v>0.5</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>8.4913048626195599E+18</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>0.64</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>0.45300000000000001</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>0.64570000000000005</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>0.64149999999999996</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>0.53249999999999997</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>2.09012669797633E+18</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>0.6825</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>0.5</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>0.21260000000000001</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <v>0.55679999999999996</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <v>0.29830000000000001</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>7.7392201578752696E+18</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>0.96499999999999997</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>0.9829</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>0.90549999999999997</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
         <v>0.94910000000000005</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="2">
         <v>0.94259999999999999</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>1.1035728743509199E+18</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>0.69499999999999995</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>0.54100000000000004</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>0.25979999999999998</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <v>0.5786</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="2">
         <v>0.35110000000000002</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>2.3497005605283999E+18</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>0.99</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <v>0.98850000000000005</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>5.45299704603601E+18</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>0.6825</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
         <v>0.5</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>5.45299704603601E+18</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>0.64</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>0.45300000000000001</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>0.64570000000000005</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <v>0.64149999999999996</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="2">
         <v>0.53249999999999997</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>5.4422802551121295E+18</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>0.70250000000000001</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>0.2283</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <v>0.57569999999999999</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="2">
         <v>0.32769999999999999</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>1.3809001035200499E+18</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>0.94499999999999995</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>0.97299999999999998</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>0.85040000000000004</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <v>0.91969999999999996</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="2">
         <v>0.90759999999999996</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>3.0686190288992998E+18</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>0.69499999999999995</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>0.54100000000000004</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>0.25979999999999998</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
         <v>0.5786</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="2">
         <v>0.35110000000000002</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>9.0305907258875003E+18</v>
       </c>
       <c r="B61" t="s">
         <v>17</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>0.99</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <v>0.98850000000000005</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <v>0.98429999999999995</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L61">
     <sortState ref="A2:L61">
-      <sortCondition descending="1" ref="L1:L61"/>
+      <sortCondition descending="1" ref="K1:K61"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>